--- a/backend/data/Consumer Order History 1.xlsx
+++ b/backend/data/Consumer Order History 1.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2880,7 +2880,7 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" s="2" t="n">
-        <v>46082.39346898341</v>
+        <v>46082.39346898149</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2900,6 +2900,96 @@
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ruby</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" s="2" t="n">
+        <v>46082.44666097222</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Paracetamol apodiscounter 500 mg Tabletten</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>18</v>
+      </c>
+      <c r="G69" t="n">
+        <v>37.08</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>GUEST</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" s="2" t="n">
+        <v>46082.46135590278</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Paracetamol apodiscounter 500 mg Tabletten</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>4</v>
+      </c>
+      <c r="G70" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>priyal</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" s="2" t="n">
+        <v>46082.49582807362</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Paracetamol apodiscounter 500 mg Tabletten</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>4</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
